--- a/data/trans_orig/P14A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE12570-2751-44FE-A86D-B1AA100CCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1047667E-8F94-4F4F-BA1A-320F6A2100C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB242BD-2256-42D7-9DF6-888346B41D92}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9D8F64-343C-4AD3-8AC4-9706BEEF4372}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
   <si>
     <t>Población que recibe medicación o terapia por varices en las piernas en 2012 (Tasa respuesta: 4,83%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>40,67%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
   </si>
   <si>
     <t>66,97%</t>
@@ -114,19 +114,19 @@
     <t>59,33%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>61,54%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,19 +144,19 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -165,19 +165,19 @@
     <t>64,18%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -186,493 +186,487 @@
     <t>65,2%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
   </si>
   <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>29,14%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>69,63%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BCEB51-7532-4882-8DC7-2BA7E8C1D81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AE636-5504-42B0-91CB-FE5E79D17018}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,7 +2177,7 @@
         <v>156</v>
       </c>
       <c r="I23" s="7">
-        <v>169403</v>
+        <v>169404</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>114</v>
@@ -2234,7 +2228,7 @@
         <v>278</v>
       </c>
       <c r="I24" s="7">
-        <v>299684</v>
+        <v>299685</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2285,7 +2279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0288C825-9C7D-4C14-BEA6-85C458EEB298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A7F2AA-AB2E-4C23-BE69-736A29B70515}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -2612,7 +2606,7 @@
         <v>1987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2627,10 +2621,10 @@
         <v>3042</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2716,13 +2710,13 @@
         <v>4775</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2731,13 +2725,13 @@
         <v>4775</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2767,13 +2761,13 @@
         <v>7638</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2782,13 +2776,13 @@
         <v>9166</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2850,13 @@
         <v>8474</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2871,13 +2865,13 @@
         <v>15150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2886,13 +2880,13 @@
         <v>23624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2901,13 @@
         <v>9781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2922,13 +2916,13 @@
         <v>21743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -2937,13 +2931,13 @@
         <v>31524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>5326</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3026,13 +3020,13 @@
         <v>18838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3041,13 +3035,13 @@
         <v>24164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3056,13 @@
         <v>4889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3077,13 +3071,13 @@
         <v>28701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3092,13 +3086,13 @@
         <v>33590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>8487</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3181,13 +3175,13 @@
         <v>71571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -3196,13 +3190,13 @@
         <v>80058</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3211,13 @@
         <v>12801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3232,13 +3226,13 @@
         <v>45993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -3247,13 +3241,13 @@
         <v>58795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3315,13 @@
         <v>22287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3336,13 +3330,13 @@
         <v>112196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3351,13 +3345,13 @@
         <v>134483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3366,13 @@
         <v>30054</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -3387,13 +3381,13 @@
         <v>106062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>119</v>
@@ -3402,13 +3396,13 @@
         <v>136116</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1047667E-8F94-4F4F-BA1A-320F6A2100C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32A2E99-AE8C-48F0-ABC2-851E099FEF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9D8F64-343C-4AD3-8AC4-9706BEEF4372}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F06A608-F8F5-4C69-96B6-211E20525799}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
   <si>
     <t>Población que recibe medicación o terapia por varices en las piernas en 2012 (Tasa respuesta: 4,83%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>40,67%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>66,97%</t>
@@ -114,19 +114,19 @@
     <t>59,33%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>61,54%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,19 +144,19 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -165,19 +165,19 @@
     <t>64,18%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -186,55 +186,55 @@
     <t>65,2%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -243,49 +243,49 @@
     <t>21,49%</t>
   </si>
   <si>
-    <t>81,3%</t>
+    <t>81,35%</t>
   </si>
   <si>
     <t>42,19%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>78,51%</t>
   </si>
   <si>
-    <t>18,7%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>57,81%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -294,115 +294,109 @@
     <t>37,11%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>55,37%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>44,63%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2016 (Tasa respuesta: 3,61%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -414,6 +408,9 @@
     <t>37,97%</t>
   </si>
   <si>
+    <t>80,94%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
@@ -423,250 +420,259 @@
     <t>62,03%</t>
   </si>
   <si>
+    <t>19,06%</t>
+  </si>
+  <si>
     <t>38,47%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>61,53%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>76,84%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AE636-5504-42B0-91CB-FE5E79D17018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBC823F-FD40-4D05-B96A-BDE1ED151B43}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,10 +1983,10 @@
         <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -1989,13 +1995,13 @@
         <v>79359</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2016,13 @@
         <v>10626</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -2025,13 +2031,13 @@
         <v>80125</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2040,13 +2046,13 @@
         <v>90751</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2120,13 @@
         <v>14765</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -2129,13 +2135,13 @@
         <v>130281</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -2144,13 +2150,13 @@
         <v>145046</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2171,13 @@
         <v>26023</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -2180,13 +2186,13 @@
         <v>169404</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -2195,13 +2201,13 @@
         <v>195426</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A7F2AA-AB2E-4C23-BE69-736A29B70515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4C2EF3-0CEA-459C-A366-888BE8FF4C9F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2296,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2546,7 +2552,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2555,7 +2561,7 @@
         <v>1862</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2570,13 +2576,13 @@
         <v>1862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -2606,7 +2612,7 @@
         <v>1987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2621,10 +2627,10 @@
         <v>3042</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2701,7 +2707,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2749,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2856,7 +2862,7 @@
         <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2865,13 +2871,13 @@
         <v>15150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2880,13 +2886,13 @@
         <v>23624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2907,13 @@
         <v>9781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2916,13 +2922,13 @@
         <v>21743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -2931,13 +2937,13 @@
         <v>31524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3011,13 @@
         <v>5326</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3020,13 +3026,13 @@
         <v>18838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3035,13 +3041,13 @@
         <v>24164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3062,13 @@
         <v>4889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3071,13 +3077,13 @@
         <v>28701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3086,13 +3092,13 @@
         <v>33590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>8487</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3175,13 +3181,13 @@
         <v>71571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -3190,13 +3196,13 @@
         <v>80058</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3217,13 @@
         <v>12801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3226,13 +3232,13 @@
         <v>45993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -3241,13 +3247,13 @@
         <v>58795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3321,13 @@
         <v>22287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3330,13 +3336,13 @@
         <v>112196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3345,13 +3351,13 @@
         <v>134483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3372,13 @@
         <v>30054</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -3381,13 +3387,13 @@
         <v>106062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>119</v>
@@ -3396,13 +3402,13 @@
         <v>136116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3464,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
